--- a/data/outputs/management/29.xlsx
+++ b/data/outputs/management/29.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ30"/>
+  <dimension ref="A1:BR30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1114,6 +1120,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1315,6 +1322,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>18795760</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1540,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1725,6 +1738,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1934,6 +1948,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2143,6 +2158,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2340,6 +2356,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2575,6 +2592,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2814,6 +2832,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3045,6 +3064,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3264,6 +3284,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3457,6 +3478,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3692,6 +3714,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3915,6 +3938,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4132,6 +4156,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4333,6 +4358,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4550,6 +4576,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4739,6 +4766,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4948,6 +4976,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5153,6 +5182,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5362,6 +5392,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5563,6 +5594,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5772,6 +5804,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5981,6 +6014,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6182,6 +6216,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6379,6 +6414,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6584,6 +6620,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6793,6 +6830,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
